--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il17c-Il17re.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il17c-Il17re.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,25 +531,25 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4489173333333333</v>
+        <v>0.06081066666666667</v>
       </c>
       <c r="H2">
-        <v>1.346752</v>
+        <v>0.182432</v>
       </c>
       <c r="I2">
-        <v>0.08605735254748714</v>
+        <v>0.01228695486959288</v>
       </c>
       <c r="J2">
-        <v>0.08756402225771086</v>
+        <v>0.0124780014623513</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.04977600000000001</v>
+        <v>0.1894686666666666</v>
       </c>
       <c r="N2">
-        <v>0.149328</v>
+        <v>0.568406</v>
       </c>
       <c r="O2">
-        <v>0.1087060257198422</v>
+        <v>0.5015541042249134</v>
       </c>
       <c r="P2">
-        <v>0.1108931949000181</v>
+        <v>0.5534576620068568</v>
       </c>
       <c r="Q2">
-        <v>0.022345309184</v>
+        <v>0.01152171593244444</v>
       </c>
       <c r="R2">
-        <v>0.201107782656</v>
+        <v>0.103695443392</v>
       </c>
       <c r="S2">
-        <v>0.009354952779408666</v>
+        <v>0.006162572643270595</v>
       </c>
       <c r="T2">
-        <v>0.00971025418645385</v>
+        <v>0.006906045515871088</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4489173333333333</v>
+        <v>0.06081066666666667</v>
       </c>
       <c r="H3">
-        <v>1.346752</v>
+        <v>0.182432</v>
       </c>
       <c r="I3">
-        <v>0.08605735254748714</v>
+        <v>0.01228695486959288</v>
       </c>
       <c r="J3">
-        <v>0.08756402225771086</v>
+        <v>0.0124780014623513</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1894686666666666</v>
+        <v>0.007190666666666667</v>
       </c>
       <c r="N3">
-        <v>0.568406</v>
+        <v>0.021572</v>
       </c>
       <c r="O3">
-        <v>0.4137814559581097</v>
+        <v>0.01903485384802383</v>
       </c>
       <c r="P3">
-        <v>0.4221067538595552</v>
+        <v>0.02100468447696174</v>
       </c>
       <c r="Q3">
-        <v>0.08505576859022221</v>
+        <v>0.0004372692337777778</v>
       </c>
       <c r="R3">
-        <v>0.7655019173119999</v>
+        <v>0.003935423104</v>
       </c>
       <c r="S3">
-        <v>0.03560893663299957</v>
+        <v>0.0002338803901799652</v>
       </c>
       <c r="T3">
-        <v>0.03696136519008817</v>
+        <v>0.0002620964836197561</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4489173333333333</v>
+        <v>0.06081066666666667</v>
       </c>
       <c r="H4">
-        <v>1.346752</v>
+        <v>0.182432</v>
       </c>
       <c r="I4">
-        <v>0.08605735254748714</v>
+        <v>0.01228695486959288</v>
       </c>
       <c r="J4">
-        <v>0.08756402225771086</v>
+        <v>0.0124780014623513</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07532</v>
+        <v>0.1062805</v>
       </c>
       <c r="N4">
-        <v>0.22596</v>
+        <v>0.212561</v>
       </c>
       <c r="O4">
-        <v>0.1644916798701887</v>
+        <v>0.2813416165948772</v>
       </c>
       <c r="P4">
-        <v>0.1678012584351768</v>
+        <v>0.2069709223580319</v>
       </c>
       <c r="Q4">
-        <v>0.03381245354666666</v>
+        <v>0.006462988058666667</v>
       </c>
       <c r="R4">
-        <v>0.30431208192</v>
+        <v>0.038777928352</v>
       </c>
       <c r="S4">
-        <v>0.01415571848571722</v>
+        <v>0.003456831746039559</v>
       </c>
       <c r="T4">
-        <v>0.01469335312848971</v>
+        <v>0.002582583471847719</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4489173333333333</v>
+        <v>0.06081066666666667</v>
       </c>
       <c r="H5">
-        <v>1.346752</v>
+        <v>0.182432</v>
       </c>
       <c r="I5">
-        <v>0.08605735254748714</v>
+        <v>0.01228695486959288</v>
       </c>
       <c r="J5">
-        <v>0.08756402225771086</v>
+        <v>0.0124780014623513</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.0270935</v>
+        <v>0.07482333333333334</v>
       </c>
       <c r="N5">
-        <v>0.054187</v>
+        <v>0.22447</v>
       </c>
       <c r="O5">
-        <v>0.05916961402765478</v>
+        <v>0.1980694253321857</v>
       </c>
       <c r="P5">
-        <v>0.04024007253862154</v>
+        <v>0.2185667311581495</v>
       </c>
       <c r="Q5">
-        <v>0.01216274177066667</v>
+        <v>0.004550056782222223</v>
       </c>
       <c r="R5">
-        <v>0.072976450624</v>
+        <v>0.04095051104000001</v>
       </c>
       <c r="S5">
-        <v>0.005091980334476628</v>
+        <v>0.002433670090102762</v>
       </c>
       <c r="T5">
-        <v>0.003523582607423757</v>
+        <v>0.002727275991012732</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4489173333333333</v>
+        <v>0.6702279999999999</v>
       </c>
       <c r="H6">
-        <v>1.346752</v>
+        <v>2.010684</v>
       </c>
       <c r="I6">
-        <v>0.08605735254748714</v>
+        <v>0.1354213272069181</v>
       </c>
       <c r="J6">
-        <v>0.08756402225771086</v>
+        <v>0.1375269573996138</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1162373333333333</v>
+        <v>0.1894686666666666</v>
       </c>
       <c r="N6">
-        <v>0.348712</v>
+        <v>0.568406</v>
       </c>
       <c r="O6">
-        <v>0.2538512244242045</v>
+        <v>0.5015541042249134</v>
       </c>
       <c r="P6">
-        <v>0.2589587202666285</v>
+        <v>0.5534576620068568</v>
       </c>
       <c r="Q6">
-        <v>0.05218095371377778</v>
+        <v>0.1269872055226667</v>
       </c>
       <c r="R6">
-        <v>0.469628583424</v>
+        <v>1.142884849704</v>
       </c>
       <c r="S6">
-        <v>0.02184576431488505</v>
+        <v>0.06792112246021471</v>
       </c>
       <c r="T6">
-        <v>0.02267546714525537</v>
+        <v>0.07611534830530685</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>2.010684</v>
       </c>
       <c r="I7">
-        <v>0.1284825579242441</v>
+        <v>0.1354213272069181</v>
       </c>
       <c r="J7">
-        <v>0.1307319970783211</v>
+        <v>0.1375269573996138</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.04977600000000001</v>
+        <v>0.007190666666666667</v>
       </c>
       <c r="N7">
-        <v>0.149328</v>
+        <v>0.021572</v>
       </c>
       <c r="O7">
-        <v>0.1087060257198422</v>
+        <v>0.01903485384802383</v>
       </c>
       <c r="P7">
-        <v>0.1108931949000181</v>
+        <v>0.02100468447696174</v>
       </c>
       <c r="Q7">
-        <v>0.033361268928</v>
+        <v>0.004819386138666667</v>
       </c>
       <c r="R7">
-        <v>0.300251420352</v>
+        <v>0.043374475248</v>
       </c>
       <c r="S7">
-        <v>0.013966828246264</v>
+        <v>0.0025777251712891</v>
       </c>
       <c r="T7">
-        <v>0.01449728883167485</v>
+        <v>0.002888710347255447</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>2.010684</v>
       </c>
       <c r="I8">
-        <v>0.1284825579242441</v>
+        <v>0.1354213272069181</v>
       </c>
       <c r="J8">
-        <v>0.1307319970783211</v>
+        <v>0.1375269573996138</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1894686666666666</v>
+        <v>0.1062805</v>
       </c>
       <c r="N8">
-        <v>0.568406</v>
+        <v>0.212561</v>
       </c>
       <c r="O8">
-        <v>0.4137814559581097</v>
+        <v>0.2813416165948772</v>
       </c>
       <c r="P8">
-        <v>0.4221067538595552</v>
+        <v>0.2069709223580319</v>
       </c>
       <c r="Q8">
-        <v>0.1269872055226667</v>
+        <v>0.07123216695399999</v>
       </c>
       <c r="R8">
-        <v>1.142884849704</v>
+        <v>0.427393001724</v>
       </c>
       <c r="S8">
-        <v>0.0531636998831159</v>
+        <v>0.03809965511781817</v>
       </c>
       <c r="T8">
-        <v>0.05518285891230697</v>
+        <v>0.02846408122209183</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>2.010684</v>
       </c>
       <c r="I9">
-        <v>0.1284825579242441</v>
+        <v>0.1354213272069181</v>
       </c>
       <c r="J9">
-        <v>0.1307319970783211</v>
+        <v>0.1375269573996138</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,42 +992,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07532</v>
+        <v>0.07482333333333334</v>
       </c>
       <c r="N9">
-        <v>0.22596</v>
+        <v>0.22447</v>
       </c>
       <c r="O9">
-        <v>0.1644916798701887</v>
+        <v>0.1980694253321857</v>
       </c>
       <c r="P9">
-        <v>0.1678012584351768</v>
+        <v>0.2185667311581495</v>
       </c>
       <c r="Q9">
-        <v>0.05048157295999999</v>
+        <v>0.05014869305333333</v>
       </c>
       <c r="R9">
-        <v>0.45433415664</v>
+        <v>0.45133823748</v>
       </c>
       <c r="S9">
-        <v>0.02113431178697774</v>
+        <v>0.02682282445759615</v>
       </c>
       <c r="T9">
-        <v>0.02193699362748613</v>
+        <v>0.03005881752495968</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6702279999999999</v>
+        <v>2.226084666666666</v>
       </c>
       <c r="H10">
-        <v>2.010684</v>
+        <v>6.678254</v>
       </c>
       <c r="I10">
-        <v>0.1284825579242441</v>
+        <v>0.4497862518948327</v>
       </c>
       <c r="J10">
-        <v>0.1307319970783211</v>
+        <v>0.4567798586758539</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0270935</v>
+        <v>0.1894686666666666</v>
       </c>
       <c r="N10">
-        <v>0.054187</v>
+        <v>0.568406</v>
       </c>
       <c r="O10">
-        <v>0.05916961402765478</v>
+        <v>0.5015541042249134</v>
       </c>
       <c r="P10">
-        <v>0.04024007253862154</v>
+        <v>0.5534576620068568</v>
       </c>
       <c r="Q10">
-        <v>0.018158822318</v>
+        <v>0.4217732936804444</v>
       </c>
       <c r="R10">
-        <v>0.108952933908</v>
+        <v>3.795959643124</v>
       </c>
       <c r="S10">
-        <v>0.007602263361663322</v>
+        <v>0.2255921406617941</v>
       </c>
       <c r="T10">
-        <v>0.0052606650455505</v>
+        <v>0.2528083126345606</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6702279999999999</v>
+        <v>2.226084666666666</v>
       </c>
       <c r="H11">
-        <v>2.010684</v>
+        <v>6.678254</v>
       </c>
       <c r="I11">
-        <v>0.1284825579242441</v>
+        <v>0.4497862518948327</v>
       </c>
       <c r="J11">
-        <v>0.1307319970783211</v>
+        <v>0.4567798586758539</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1162373333333333</v>
+        <v>0.007190666666666667</v>
       </c>
       <c r="N11">
-        <v>0.348712</v>
+        <v>0.021572</v>
       </c>
       <c r="O11">
-        <v>0.2538512244242045</v>
+        <v>0.01903485384802383</v>
       </c>
       <c r="P11">
-        <v>0.2589587202666285</v>
+        <v>0.02100468447696174</v>
       </c>
       <c r="Q11">
-        <v>0.07790551544533333</v>
+        <v>0.01600703280977778</v>
       </c>
       <c r="R11">
-        <v>0.701149639008</v>
+        <v>0.144063295288</v>
       </c>
       <c r="S11">
-        <v>0.03261545464622315</v>
+        <v>0.008561615567668572</v>
       </c>
       <c r="T11">
-        <v>0.03385419066130264</v>
+        <v>0.009594516806917487</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.117577333333334</v>
+        <v>2.226084666666666</v>
       </c>
       <c r="H12">
-        <v>6.352732</v>
+        <v>6.678254</v>
       </c>
       <c r="I12">
-        <v>0.4059391019012432</v>
+        <v>0.4497862518948327</v>
       </c>
       <c r="J12">
-        <v>0.4130461779490746</v>
+        <v>0.4567798586758539</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04977600000000001</v>
+        <v>0.1062805</v>
       </c>
       <c r="N12">
-        <v>0.149328</v>
+        <v>0.212561</v>
       </c>
       <c r="O12">
-        <v>0.1087060257198422</v>
+        <v>0.2813416165948772</v>
       </c>
       <c r="P12">
-        <v>0.1108931949000181</v>
+        <v>0.2069709223580319</v>
       </c>
       <c r="Q12">
-        <v>0.105404529344</v>
+        <v>0.2365893914156666</v>
       </c>
       <c r="R12">
-        <v>0.9486407640960002</v>
+        <v>1.419536348494</v>
       </c>
       <c r="S12">
-        <v>0.04412802645196619</v>
+        <v>0.1265435912302429</v>
       </c>
       <c r="T12">
-        <v>0.04580401031401427</v>
+        <v>0.09454014866471296</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.117577333333334</v>
+        <v>2.226084666666666</v>
       </c>
       <c r="H13">
-        <v>6.352732</v>
+        <v>6.678254</v>
       </c>
       <c r="I13">
-        <v>0.4059391019012432</v>
+        <v>0.4497862518948327</v>
       </c>
       <c r="J13">
-        <v>0.4130461779490746</v>
+        <v>0.4567798586758539</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1894686666666666</v>
+        <v>0.07482333333333334</v>
       </c>
       <c r="N13">
-        <v>0.568406</v>
+        <v>0.22447</v>
       </c>
       <c r="O13">
-        <v>0.4137814559581097</v>
+        <v>0.1980694253321857</v>
       </c>
       <c r="P13">
-        <v>0.4221067538595552</v>
+        <v>0.2185667311581495</v>
       </c>
       <c r="Q13">
-        <v>0.4012145539102223</v>
+        <v>0.1665630750422222</v>
       </c>
       <c r="R13">
-        <v>3.610930985192</v>
+        <v>1.49906767538</v>
       </c>
       <c r="S13">
-        <v>0.1679700726150239</v>
+        <v>0.08908890443512722</v>
       </c>
       <c r="T13">
-        <v>0.17434958136818</v>
+        <v>0.0998368805696629</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.227327</v>
+      </c>
+      <c r="H14">
+        <v>0.454654</v>
+      </c>
+      <c r="I14">
+        <v>0.04593201723886062</v>
+      </c>
+      <c r="J14">
+        <v>0.03109746797088157</v>
+      </c>
+      <c r="K14">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2.117577333333334</v>
-      </c>
-      <c r="H14">
-        <v>6.352732</v>
-      </c>
-      <c r="I14">
-        <v>0.4059391019012432</v>
-      </c>
-      <c r="J14">
-        <v>0.4130461779490746</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.07532</v>
+        <v>0.1894686666666666</v>
       </c>
       <c r="N14">
-        <v>0.22596</v>
+        <v>0.568406</v>
       </c>
       <c r="O14">
-        <v>0.1644916798701887</v>
+        <v>0.5015541042249134</v>
       </c>
       <c r="P14">
-        <v>0.1678012584351768</v>
+        <v>0.5534576620068568</v>
       </c>
       <c r="Q14">
-        <v>0.1594959247466667</v>
+        <v>0.04307134358733333</v>
       </c>
       <c r="R14">
-        <v>1.43546332272</v>
+        <v>0.258428061524</v>
       </c>
       <c r="S14">
-        <v>0.06677360479673121</v>
+        <v>0.02303739176148002</v>
       </c>
       <c r="T14">
-        <v>0.06930966845169469</v>
+        <v>0.01721113191749723</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>2.117577333333334</v>
+        <v>0.227327</v>
       </c>
       <c r="H15">
-        <v>6.352732</v>
+        <v>0.454654</v>
       </c>
       <c r="I15">
-        <v>0.4059391019012432</v>
+        <v>0.04593201723886062</v>
       </c>
       <c r="J15">
-        <v>0.4130461779490746</v>
+        <v>0.03109746797088157</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.0270935</v>
+        <v>0.007190666666666667</v>
       </c>
       <c r="N15">
-        <v>0.054187</v>
+        <v>0.021572</v>
       </c>
       <c r="O15">
-        <v>0.05916961402765478</v>
+        <v>0.01903485384802383</v>
       </c>
       <c r="P15">
-        <v>0.04024007253862154</v>
+        <v>0.02100468447696174</v>
       </c>
       <c r="Q15">
-        <v>0.05737258148066667</v>
+        <v>0.001634632681333334</v>
       </c>
       <c r="R15">
-        <v>0.344235488884</v>
+        <v>0.009807796088</v>
       </c>
       <c r="S15">
-        <v>0.02401925997822938</v>
+        <v>0.000874309235086623</v>
       </c>
       <c r="T15">
-        <v>0.01662100816247114</v>
+        <v>0.0006531925027607909</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>2.117577333333334</v>
+        <v>0.227327</v>
       </c>
       <c r="H16">
-        <v>6.352732</v>
+        <v>0.454654</v>
       </c>
       <c r="I16">
-        <v>0.4059391019012432</v>
+        <v>0.04593201723886062</v>
       </c>
       <c r="J16">
-        <v>0.4130461779490746</v>
+        <v>0.03109746797088157</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1162373333333333</v>
+        <v>0.1062805</v>
       </c>
       <c r="N16">
-        <v>0.348712</v>
+        <v>0.212561</v>
       </c>
       <c r="O16">
-        <v>0.2538512244242045</v>
+        <v>0.2813416165948772</v>
       </c>
       <c r="P16">
-        <v>0.2589587202666285</v>
+        <v>0.2069709223580319</v>
       </c>
       <c r="Q16">
-        <v>0.2461415423537778</v>
+        <v>0.0241604272235</v>
       </c>
       <c r="R16">
-        <v>2.215273881184</v>
+        <v>0.09664170889400001</v>
       </c>
       <c r="S16">
-        <v>0.1030481380592925</v>
+        <v>0.01292258798344481</v>
       </c>
       <c r="T16">
-        <v>0.1069619096527144</v>
+        <v>0.006436271628932713</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.227327</v>
+      </c>
+      <c r="H17">
+        <v>0.454654</v>
+      </c>
+      <c r="I17">
+        <v>0.04593201723886062</v>
+      </c>
+      <c r="J17">
+        <v>0.03109746797088157</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.2692725</v>
-      </c>
-      <c r="H17">
-        <v>0.5385449999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.05161947811588895</v>
-      </c>
-      <c r="J17">
-        <v>0.03501547899448369</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.04977600000000001</v>
+        <v>0.07482333333333334</v>
       </c>
       <c r="N17">
-        <v>0.149328</v>
+        <v>0.22447</v>
       </c>
       <c r="O17">
-        <v>0.1087060257198422</v>
+        <v>0.1980694253321857</v>
       </c>
       <c r="P17">
-        <v>0.1108931949000181</v>
+        <v>0.2185667311581495</v>
       </c>
       <c r="Q17">
-        <v>0.01340330796</v>
+        <v>0.01700936389666667</v>
       </c>
       <c r="R17">
-        <v>0.08041984776</v>
+        <v>0.10205618338</v>
       </c>
       <c r="S17">
-        <v>0.005611348315710657</v>
+        <v>0.009097728258849169</v>
       </c>
       <c r="T17">
-        <v>0.003882978336652768</v>
+        <v>0.006796871921690837</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2692725</v>
+        <v>1.764755333333333</v>
       </c>
       <c r="H18">
-        <v>0.5385449999999999</v>
+        <v>5.294266</v>
       </c>
       <c r="I18">
-        <v>0.05161947811588895</v>
+        <v>0.3565734487897958</v>
       </c>
       <c r="J18">
-        <v>0.03501547899448369</v>
+        <v>0.3621177144912995</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,27 +1556,27 @@
         <v>0.568406</v>
       </c>
       <c r="O18">
-        <v>0.4137814559581097</v>
+        <v>0.5015541042249134</v>
       </c>
       <c r="P18">
-        <v>0.4221067538595552</v>
+        <v>0.5534576620068568</v>
       </c>
       <c r="Q18">
-        <v>0.05101870154499999</v>
+        <v>0.3343658399995555</v>
       </c>
       <c r="R18">
-        <v>0.3061122092699999</v>
+        <v>3.009292559996</v>
       </c>
       <c r="S18">
-        <v>0.02135918281059031</v>
+        <v>0.1788408766981541</v>
       </c>
       <c r="T18">
-        <v>0.01478027017319895</v>
+        <v>0.2004168236336211</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2692725</v>
+        <v>1.764755333333333</v>
       </c>
       <c r="H19">
-        <v>0.5385449999999999</v>
+        <v>5.294266</v>
       </c>
       <c r="I19">
-        <v>0.05161947811588895</v>
+        <v>0.3565734487897958</v>
       </c>
       <c r="J19">
-        <v>0.03501547899448369</v>
+        <v>0.3621177144912995</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,33 +1612,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.07532</v>
+        <v>0.007190666666666667</v>
       </c>
       <c r="N19">
-        <v>0.22596</v>
+        <v>0.021572</v>
       </c>
       <c r="O19">
-        <v>0.1644916798701887</v>
+        <v>0.01903485384802383</v>
       </c>
       <c r="P19">
-        <v>0.1678012584351768</v>
+        <v>0.02100468447696174</v>
       </c>
       <c r="Q19">
-        <v>0.0202816047</v>
+        <v>0.01268976735022222</v>
       </c>
       <c r="R19">
-        <v>0.1216896282</v>
+        <v>0.114207906152</v>
       </c>
       <c r="S19">
-        <v>0.008490974669305018</v>
+        <v>0.006787323483799572</v>
       </c>
       <c r="T19">
-        <v>0.005875641439984861</v>
+        <v>0.007606168336408261</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.764755333333333</v>
+      </c>
+      <c r="H20">
+        <v>5.294266</v>
+      </c>
+      <c r="I20">
+        <v>0.3565734487897958</v>
+      </c>
+      <c r="J20">
+        <v>0.3621177144912995</v>
+      </c>
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.2692725</v>
-      </c>
-      <c r="H20">
-        <v>0.5385449999999999</v>
-      </c>
-      <c r="I20">
-        <v>0.05161947811588895</v>
-      </c>
-      <c r="J20">
-        <v>0.03501547899448369</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0270935</v>
+        <v>0.1062805</v>
       </c>
       <c r="N20">
-        <v>0.054187</v>
+        <v>0.212561</v>
       </c>
       <c r="O20">
-        <v>0.05916961402765478</v>
+        <v>0.2813416165948772</v>
       </c>
       <c r="P20">
-        <v>0.04024007253862154</v>
+        <v>0.2069709223580319</v>
       </c>
       <c r="Q20">
-        <v>0.007295534478749999</v>
+        <v>0.1875590792043333</v>
       </c>
       <c r="R20">
-        <v>0.029182137915</v>
+        <v>1.125354475226</v>
       </c>
       <c r="S20">
-        <v>0.003054304596426122</v>
+        <v>0.1003189505173318</v>
       </c>
       <c r="T20">
-        <v>0.001409025414712603</v>
+        <v>0.07494783737044672</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,362 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.764755333333333</v>
+      </c>
+      <c r="H21">
+        <v>5.294266</v>
+      </c>
+      <c r="I21">
+        <v>0.3565734487897958</v>
+      </c>
+      <c r="J21">
+        <v>0.3621177144912995</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.2692725</v>
-      </c>
-      <c r="H21">
-        <v>0.5385449999999999</v>
-      </c>
-      <c r="I21">
-        <v>0.05161947811588895</v>
-      </c>
-      <c r="J21">
-        <v>0.03501547899448369</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.1162373333333333</v>
+        <v>0.07482333333333334</v>
       </c>
       <c r="N21">
-        <v>0.348712</v>
+        <v>0.22447</v>
       </c>
       <c r="O21">
-        <v>0.2538512244242045</v>
+        <v>0.1980694253321857</v>
       </c>
       <c r="P21">
-        <v>0.2589587202666285</v>
+        <v>0.2185667311581495</v>
       </c>
       <c r="Q21">
-        <v>0.03129951734</v>
+        <v>0.1320448765577778</v>
       </c>
       <c r="R21">
-        <v>0.18779710404</v>
+        <v>1.18840388902</v>
       </c>
       <c r="S21">
-        <v>0.01310366772385684</v>
+        <v>0.07062629809051038</v>
       </c>
       <c r="T21">
-        <v>0.009067563629934506</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>1.710495</v>
-      </c>
-      <c r="H22">
-        <v>5.131485000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.3279015095111364</v>
-      </c>
-      <c r="J22">
-        <v>0.3336423237204099</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.04977600000000001</v>
-      </c>
-      <c r="N22">
-        <v>0.149328</v>
-      </c>
-      <c r="O22">
-        <v>0.1087060257198422</v>
-      </c>
-      <c r="P22">
-        <v>0.1108931949000181</v>
-      </c>
-      <c r="Q22">
-        <v>0.08514159912000002</v>
-      </c>
-      <c r="R22">
-        <v>0.7662743920800001</v>
-      </c>
-      <c r="S22">
-        <v>0.03564486992649268</v>
-      </c>
-      <c r="T22">
-        <v>0.03699866323122233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>1.710495</v>
-      </c>
-      <c r="H23">
-        <v>5.131485000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.3279015095111364</v>
-      </c>
-      <c r="J23">
-        <v>0.3336423237204099</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.1894686666666666</v>
-      </c>
-      <c r="N23">
-        <v>0.568406</v>
-      </c>
-      <c r="O23">
-        <v>0.4137814559581097</v>
-      </c>
-      <c r="P23">
-        <v>0.4221067538595552</v>
-      </c>
-      <c r="Q23">
-        <v>0.32408520699</v>
-      </c>
-      <c r="R23">
-        <v>2.91676686291</v>
-      </c>
-      <c r="S23">
-        <v>0.13567956401638</v>
-      </c>
-      <c r="T23">
-        <v>0.1408326782157811</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>1.710495</v>
-      </c>
-      <c r="H24">
-        <v>5.131485000000001</v>
-      </c>
-      <c r="I24">
-        <v>0.3279015095111364</v>
-      </c>
-      <c r="J24">
-        <v>0.3336423237204099</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.07532</v>
-      </c>
-      <c r="N24">
-        <v>0.22596</v>
-      </c>
-      <c r="O24">
-        <v>0.1644916798701887</v>
-      </c>
-      <c r="P24">
-        <v>0.1678012584351768</v>
-      </c>
-      <c r="Q24">
-        <v>0.1288344834</v>
-      </c>
-      <c r="R24">
-        <v>1.1595103506</v>
-      </c>
-      <c r="S24">
-        <v>0.05393707013145749</v>
-      </c>
-      <c r="T24">
-        <v>0.05598560178752141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>1.710495</v>
-      </c>
-      <c r="H25">
-        <v>5.131485000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.3279015095111364</v>
-      </c>
-      <c r="J25">
-        <v>0.3336423237204099</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.5</v>
-      </c>
-      <c r="M25">
-        <v>0.0270935</v>
-      </c>
-      <c r="N25">
-        <v>0.054187</v>
-      </c>
-      <c r="O25">
-        <v>0.05916961402765478</v>
-      </c>
-      <c r="P25">
-        <v>0.04024007253862154</v>
-      </c>
-      <c r="Q25">
-        <v>0.0463432962825</v>
-      </c>
-      <c r="R25">
-        <v>0.278059777695</v>
-      </c>
-      <c r="S25">
-        <v>0.01940180575685932</v>
-      </c>
-      <c r="T25">
-        <v>0.01342579130846354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>1.710495</v>
-      </c>
-      <c r="H26">
-        <v>5.131485000000001</v>
-      </c>
-      <c r="I26">
-        <v>0.3279015095111364</v>
-      </c>
-      <c r="J26">
-        <v>0.3336423237204099</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.1162373333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.348712</v>
-      </c>
-      <c r="O26">
-        <v>0.2538512244242045</v>
-      </c>
-      <c r="P26">
-        <v>0.2589587202666285</v>
-      </c>
-      <c r="Q26">
-        <v>0.19882337748</v>
-      </c>
-      <c r="R26">
-        <v>1.78941039732</v>
-      </c>
-      <c r="S26">
-        <v>0.08323819967994694</v>
-      </c>
-      <c r="T26">
-        <v>0.08639958917742152</v>
+        <v>0.07914688515082341</v>
       </c>
     </row>
   </sheetData>
